--- a/results/mp/deberta/corona/confidence/168/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-0.2/avg_0.002_scores.xlsx
@@ -133,18 +133,18 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
@@ -160,10 +160,10 @@
     <t>boost</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>credit</t>
   </si>
   <si>
     <t>share</t>
@@ -1596,25 +1596,25 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6796536796536796</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1622,25 +1622,25 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1648,25 +1648,25 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.6666666666666666</v>
+        <v>0.6642857142857143</v>
       </c>
       <c r="L28">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="M28">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="N28">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="O28">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1674,25 +1674,25 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.6642857142857143</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L29">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="M29">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1830,25 +1830,25 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.5670731707317073</v>
+        <v>0.5625</v>
       </c>
       <c r="L35">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1856,25 +1856,25 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.5625</v>
+        <v>0.5470588235294118</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="N36">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="10:17">
